--- a/data/trans_camb/P14B24_2016_2023-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P14B24_2016_2023-Clase-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4782878295586259</v>
+        <v>-0.4884142726349642</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.452514737332972</v>
+        <v>2.633121519586442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.176455842307878</v>
+        <v>1.304541470011912</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.210664011525936</v>
+        <v>2.167549931560255</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.257081587589712</v>
+        <v>6.296068509887753</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.519654282693238</v>
+        <v>3.481120091193744</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>0.8742704588030232</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8.095750728608024</v>
+        <v>8.095750728608026</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>3.803919508569238</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6595999708048494</v>
+        <v>-0.7233568850888841</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>1.334744389788502</v>
+        <v>1.391184504483365</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.8268159691992317</v>
+        <v>1.086831683731839</v>
       </c>
     </row>
     <row r="9">
@@ -651,7 +651,7 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>12.90976334835827</v>
+        <v>14.27970823854381</v>
       </c>
     </row>
     <row r="10">
@@ -669,7 +669,7 @@
         <v>0.9530537218018433</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.243340161591349</v>
+        <v>3.243340161591352</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1.992884265960704</v>
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6405290148756285</v>
+        <v>-0.6327460795933619</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8106009492826347</v>
+        <v>0.6786717180476647</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6677722260058724</v>
+        <v>0.595198815852737</v>
       </c>
     </row>
     <row r="12">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.587827703104297</v>
+        <v>2.485665202704066</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.514440640594248</v>
+        <v>5.655937718631677</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.393035512053734</v>
+        <v>3.41262156483313</v>
       </c>
     </row>
     <row r="13">
@@ -720,7 +720,7 @@
         <v>0.885061899627271</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1.604554615988405</v>
+        <v>1.604554615988406</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>1.289094860649018</v>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4513958765526153</v>
+        <v>-0.4553763217056389</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1534765907633937</v>
+        <v>0.107793679611371</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2105384689279393</v>
+        <v>0.2094643684847357</v>
       </c>
     </row>
     <row r="15">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6.746021301531584</v>
+        <v>6.641013394004186</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5.582559012671326</v>
+        <v>5.272064355915036</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.534370033259388</v>
+        <v>3.787486963392915</v>
       </c>
     </row>
     <row r="16">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>2.834353052691209</v>
+        <v>2.83435305269121</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>3.835300019538342</v>
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.217757098676848</v>
+        <v>1.327881497271544</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.360985062212842</v>
+        <v>-1.074973035679572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.506067462490902</v>
+        <v>1.642136734655578</v>
       </c>
     </row>
     <row r="18">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.832191246527693</v>
+        <v>5.003987570581682</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.392895885877264</v>
+        <v>8.25292742127426</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.031094581283045</v>
+        <v>5.120348923129638</v>
       </c>
     </row>
     <row r="19">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7.178940757506581</v>
+        <v>7.178940757506583</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>0.9180939926737245</v>
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.7461476504850518</v>
+        <v>0.6262930752990695</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2496581849277641</v>
+        <v>-0.206959613129977</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6162656559563077</v>
+        <v>0.5577390615276685</v>
       </c>
     </row>
     <row r="21">
@@ -858,10 +858,10 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>4.774937709502855</v>
+        <v>4.360661582015041</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>6.713783570518637</v>
+        <v>7.751046820148365</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         <v>2.768259549387511</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.331415559226596</v>
+        <v>2.331415559226595</v>
       </c>
     </row>
     <row r="23">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7191531355796951</v>
+        <v>0.6353365684573015</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7642478433269994</v>
+        <v>0.8627528118925637</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.178664637752507</v>
+        <v>1.313275270895803</v>
       </c>
     </row>
     <row r="24">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.319299299689063</v>
+        <v>3.316375543486097</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.715524728885678</v>
+        <v>4.670409632668743</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.415916461041431</v>
+        <v>3.471263574443446</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         <v>0.7887068649420421</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.000140332200683</v>
+        <v>1.000140332200682</v>
       </c>
     </row>
     <row r="26">
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3260920644814843</v>
+        <v>0.2086983431739864</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1179314817955883</v>
+        <v>0.1639609365949963</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4030384079742258</v>
+        <v>0.4079627671631965</v>
       </c>
     </row>
     <row r="27">
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.393278778698784</v>
+        <v>3.016277670377244</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.755767893796939</v>
+        <v>1.829744384200707</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.815434206614553</v>
+        <v>1.873127440276013</v>
       </c>
     </row>
     <row r="28">
@@ -985,10 +985,10 @@
         <v>1.341934511211839</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.6964350440401459</v>
+        <v>0.6964350440401473</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.193427952282656</v>
+        <v>1.193427952282657</v>
       </c>
     </row>
     <row r="29">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2203505362092154</v>
+        <v>-0.3371418192556171</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.733504607719227</v>
+        <v>-1.846023783508614</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.382310880299279</v>
+        <v>-0.2467122484122813</v>
       </c>
     </row>
     <row r="30">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.202407964591583</v>
+        <v>3.033125689694732</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.952285855420682</v>
+        <v>2.897976470824977</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.655288177543677</v>
+        <v>2.578592733454836</v>
       </c>
     </row>
     <row r="31">
@@ -1036,10 +1036,10 @@
         <v>0.8223667553266809</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.1114916462993867</v>
+        <v>0.1114916462993869</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2883562660609819</v>
+        <v>0.2883562660609821</v>
       </c>
     </row>
     <row r="32">
@@ -1050,13 +1050,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1600661092187669</v>
+        <v>-0.215921507713563</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2333095921683454</v>
+        <v>-0.2348960305328157</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.07623545912176891</v>
+        <v>-0.05381893258508119</v>
       </c>
     </row>
     <row r="33">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.457212021529325</v>
+        <v>3.09315812167221</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.602727452458764</v>
+        <v>0.6010094449858772</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7952221095394231</v>
+        <v>0.7819091264517608</v>
       </c>
     </row>
     <row r="34">
@@ -1091,7 +1091,7 @@
         <v>2.514948249410856</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0.9738922167723194</v>
+        <v>0.9738922167723173</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>1.264942975145515</v>
@@ -1105,13 +1105,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.471260749333509</v>
+        <v>0.3859997243009536</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.9993852475614647</v>
+        <v>-1.027781957314696</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.3745087281123118</v>
+        <v>-0.5523209724892979</v>
       </c>
     </row>
     <row r="36">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.180758113181849</v>
+        <v>7.693553440389422</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.967207236646372</v>
+        <v>3.006626712522636</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.025649799382058</v>
+        <v>3.082766114763702</v>
       </c>
     </row>
     <row r="37">
@@ -1142,10 +1142,10 @@
         <v>7.590380716085384</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.1904061580384654</v>
+        <v>0.190406158038465</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.3076512574158789</v>
+        <v>0.3076512574158787</v>
       </c>
     </row>
     <row r="38">
@@ -1157,10 +1157,10 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>-0.1615658358413917</v>
+        <v>-0.1763159377823215</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.08430451401253672</v>
+        <v>-0.1344152106763489</v>
       </c>
     </row>
     <row r="39">
@@ -1172,10 +1172,10 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>0.7297612821703108</v>
+        <v>0.722537744114765</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.9050830825746463</v>
+        <v>0.9010370967638514</v>
       </c>
     </row>
     <row r="40">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>1.64769457851293</v>
+        <v>1.647694578512929</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>1.992737565272463</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.031973297986228</v>
+        <v>0.9909491379941417</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.9316095218625867</v>
+        <v>1.088161585919181</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.278937843064101</v>
+        <v>1.25182544115951</v>
       </c>
     </row>
     <row r="42">
@@ -1224,13 +1224,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.398520180602914</v>
+        <v>2.41657717400232</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.925938159431629</v>
+        <v>2.993982701856722</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.50897390469491</v>
+        <v>2.419005237554717</v>
       </c>
     </row>
     <row r="43">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>1.502494379184747</v>
+        <v>1.502494379184746</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>0.4797005322025847</v>
@@ -1258,13 +1258,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.7407929367769591</v>
+        <v>0.6928151339499958</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1931457340970825</v>
+        <v>0.226712532551636</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.440009675648758</v>
+        <v>0.4165828129703509</v>
       </c>
     </row>
     <row r="45">
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.825946323003858</v>
+        <v>2.837960556708933</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.8039394741854212</v>
+        <v>0.8116959523409759</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.070057282959581</v>
+        <v>1.037457667549278</v>
       </c>
     </row>
     <row r="46">
